--- a/biology/Zoologie/Cryptobranchoidea/Cryptobranchoidea.xlsx
+++ b/biology/Zoologie/Cryptobranchoidea/Cryptobranchoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cryptobranchoidea sont un sous-ordre de salamandres que l'on rencontre dans l'est des États-Unis, en Chine, à Taiwan et au Japon. Ils sont connus comme les salamandres primitives, contrairement aux Salamandroidea qui sont les salamandres avancées[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cryptobranchoidea sont un sous-ordre de salamandres que l'on rencontre dans l'est des États-Unis, en Chine, à Taiwan et au Japon. Ils sont connus comme les salamandres primitives, contrairement aux Salamandroidea qui sont les salamandres avancées.
 Certaines espèces de Cryptobranchidae sont entièrement aquatiques et sont connues comme les salamandres géantes en raison de leur grande taille.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Liste des familles et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (30 juillet 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (30 juillet 2013) :
 famille Cryptobranchidae
 genre Andrias
 genre Cryptobranchus
@@ -555,7 +569,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dunn, 1922 : The sound-transmitting apparatus of salamanders and the phylogeny of the Caudata. The American Naturalist, vol. 56, p. 418-487.</t>
         </is>
